--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_22.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_22.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_0</t>
+          <t>model_1_22_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995405171334751</v>
+        <v>0.948220233771383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8253539428155076</v>
+        <v>0.718137818524655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8135172626881946</v>
+        <v>0.7697132971768081</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992175239357134</v>
+        <v>0.8893104751796517</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001912609698646752</v>
+        <v>0.1662279201981028</v>
       </c>
       <c r="G2" t="n">
-        <v>1.167858988563851</v>
+        <v>1.88481370538164</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6670379384739489</v>
+        <v>0.8237221832083242</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001612892193387758</v>
+        <v>0.2003602113853978</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08290638567103559</v>
+        <v>0.9305921789174992</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0437333934042026</v>
+        <v>0.4077105838681439</v>
       </c>
       <c r="L2" t="n">
-        <v>1.029406903457591</v>
+        <v>0.9294913821567768</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04442215063296418</v>
+        <v>0.4141316180030071</v>
       </c>
       <c r="N2" t="n">
-        <v>142.518573270278</v>
+        <v>37.58879083820959</v>
       </c>
       <c r="O2" t="n">
-        <v>283.8537458134944</v>
+        <v>74.55337442643541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_1</t>
+          <t>model_1_22_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995473720390836</v>
+        <v>0.9482082857470425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8253049930051202</v>
+        <v>0.7180535593408757</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8131796947052431</v>
+        <v>0.7701144531635449</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9991902146600838</v>
+        <v>0.8900820827741213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001884075971047412</v>
+        <v>0.1662662767875824</v>
       </c>
       <c r="G3" t="n">
-        <v>1.168186316171304</v>
+        <v>1.885377146931549</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6682453995756501</v>
+        <v>0.8222872715041275</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001669183905659</v>
+        <v>0.198963516793155</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08215983057490873</v>
+        <v>0.9315052882301916</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04340594395987042</v>
+        <v>0.4077576201465552</v>
       </c>
       <c r="L3" t="n">
-        <v>1.028968189498649</v>
+        <v>0.9294751125066111</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04408954418721312</v>
+        <v>0.4141793950557843</v>
       </c>
       <c r="N3" t="n">
-        <v>142.5486355586116</v>
+        <v>37.58832939749877</v>
       </c>
       <c r="O3" t="n">
-        <v>283.883808101828</v>
+        <v>74.55291298572459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_2</t>
+          <t>model_1_22_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995468506921991</v>
+        <v>0.9481940595268057</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8251656284684683</v>
+        <v>0.7179674462580097</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8130235758415653</v>
+        <v>0.7705176349250762</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9991083887569659</v>
+        <v>0.8908519200700855</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001886246091372642</v>
+        <v>0.1663119470401636</v>
       </c>
       <c r="G4" t="n">
-        <v>1.169118247469609</v>
+        <v>1.885952985513189</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6688038276987338</v>
+        <v>0.8208451137209518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001837848950354137</v>
+        <v>0.1975700266358694</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08166180795355341</v>
+        <v>0.932425961970641</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04343093472828603</v>
+        <v>0.4078136180170588</v>
       </c>
       <c r="L4" t="n">
-        <v>1.02900155569926</v>
+        <v>0.929455740632246</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04411492853524967</v>
+        <v>0.4142362748367711</v>
       </c>
       <c r="N4" t="n">
-        <v>142.5463332401052</v>
+        <v>37.58778011014805</v>
       </c>
       <c r="O4" t="n">
-        <v>283.8815057833216</v>
+        <v>74.55236369837388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_3</t>
+          <t>model_1_22_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995449699932382</v>
+        <v>0.9481775343546321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8246330567520319</v>
+        <v>0.7178794486188422</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8124818081450247</v>
+        <v>0.7709223549374907</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9990398517819998</v>
+        <v>0.8916197945953064</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001894074551005934</v>
+        <v>0.1663649975886961</v>
       </c>
       <c r="G5" t="n">
-        <v>1.172679556989687</v>
+        <v>1.886541426131494</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6707416993357636</v>
+        <v>0.8193974537035594</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001979121964221836</v>
+        <v>0.1961800893094565</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08147163142851964</v>
+        <v>0.933352176683909</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04352096679769343</v>
+        <v>0.407878655470835</v>
       </c>
       <c r="L5" t="n">
-        <v>1.029121920432758</v>
+        <v>0.9294332382701374</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04420637851975119</v>
+        <v>0.4143023365654306</v>
       </c>
       <c r="N5" t="n">
-        <v>142.5380498466427</v>
+        <v>37.58714224750276</v>
       </c>
       <c r="O5" t="n">
-        <v>283.8732223898591</v>
+        <v>74.55172583572858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_4</t>
+          <t>model_1_22_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995477453476457</v>
+        <v>0.9481586164717534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8246324375996671</v>
+        <v>0.7177895201343172</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8122795981515709</v>
+        <v>0.7713290731141768</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9990098532184757</v>
+        <v>0.8923855108549144</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001882522064191843</v>
+        <v>0.166425729425754</v>
       </c>
       <c r="G6" t="n">
-        <v>1.172683697264402</v>
+        <v>1.887142778321595</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6714649927575383</v>
+        <v>0.8179426463684284</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002040957017240559</v>
+        <v>0.1947940586811266</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08190765099695001</v>
+        <v>0.9342815355317559</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04338804056640313</v>
+        <v>0.4079530970905283</v>
       </c>
       <c r="L6" t="n">
-        <v>1.028944297750677</v>
+        <v>0.9294074777487705</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04407135883319555</v>
+        <v>0.4143779505662198</v>
       </c>
       <c r="N6" t="n">
-        <v>142.5502857553454</v>
+        <v>37.58641227719046</v>
       </c>
       <c r="O6" t="n">
-        <v>283.8854582985617</v>
+        <v>74.55099586541628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_5</t>
+          <t>model_1_22_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995445961948062</v>
+        <v>0.9481373004770249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.824593281083053</v>
+        <v>0.717697652321508</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8118737578024939</v>
+        <v>0.7717373325961034</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9988778886113153</v>
+        <v>0.8931488260054153</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00189563049695846</v>
+        <v>0.1664941598905618</v>
       </c>
       <c r="G7" t="n">
-        <v>1.1729455370713</v>
+        <v>1.887757098808862</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6729166601542116</v>
+        <v>0.8164823258738219</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002312971324651363</v>
+        <v>0.1934123743243072</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08258157177972696</v>
+        <v>0.9352190481673995</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04353883894821334</v>
+        <v>0.4080369589762205</v>
       </c>
       <c r="L7" t="n">
-        <v>1.029145843532405</v>
+        <v>0.9293784517133956</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0442245321387762</v>
+        <v>0.4144631331927805</v>
       </c>
       <c r="N7" t="n">
-        <v>142.5364075594248</v>
+        <v>37.58559009181833</v>
       </c>
       <c r="O7" t="n">
-        <v>283.8715801026412</v>
+        <v>74.55017368004415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_6</t>
+          <t>model_1_22_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995438499045224</v>
+        <v>0.9481134668959621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8243537300873151</v>
+        <v>0.7176037311042984</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8116786931458951</v>
+        <v>0.7721472046642706</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9988187883491517</v>
+        <v>0.8939097891239708</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001898736950188251</v>
+        <v>0.1665706725305272</v>
       </c>
       <c r="G8" t="n">
-        <v>1.17454741568283</v>
+        <v>1.88838515042081</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6736143951203666</v>
+        <v>0.8150162372517357</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002434792752579284</v>
+        <v>0.1920349474039395</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08227669836215629</v>
+        <v>0.9361585179226601</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04357449885183134</v>
+        <v>0.4081307052042608</v>
       </c>
       <c r="L8" t="n">
-        <v>1.029193606110567</v>
+        <v>0.9293459974753526</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04426075365022936</v>
+        <v>0.4145583558302006</v>
       </c>
       <c r="N8" t="n">
-        <v>142.533132753843</v>
+        <v>37.58467119995269</v>
       </c>
       <c r="O8" t="n">
-        <v>283.8683052970594</v>
+        <v>74.5492547881785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_7</t>
+          <t>model_1_22_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995415017894244</v>
+        <v>0.9480870370974397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8242784991279815</v>
+        <v>0.7175077310746896</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8114716692802888</v>
+        <v>0.7725587539929406</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9987631832425486</v>
+        <v>0.8946676061052594</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001908511041970986</v>
+        <v>0.1666555197741446</v>
       </c>
       <c r="G9" t="n">
-        <v>1.1750504854543</v>
+        <v>1.889027103060844</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6743549074837071</v>
+        <v>0.8135441491660843</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002549409731226779</v>
+        <v>0.190663215337975</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08252069056754499</v>
+        <v>0.9371032796917694</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04368650869514507</v>
+        <v>0.4082346381361392</v>
       </c>
       <c r="L9" t="n">
-        <v>1.029343885476841</v>
+        <v>0.9293100079624711</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04437452753660651</v>
+        <v>0.4146639256018613</v>
       </c>
       <c r="N9" t="n">
-        <v>142.5228638002307</v>
+        <v>37.58365270563969</v>
       </c>
       <c r="O9" t="n">
-        <v>283.8580363434471</v>
+        <v>74.54823629386551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_8</t>
+          <t>model_1_22_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995417193041567</v>
+        <v>0.9480579785120012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8242752400087472</v>
+        <v>0.7174096383956221</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8113318439603321</v>
+        <v>0.772971721403271</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9987071828347177</v>
+        <v>0.8954226085680319</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001907605631090782</v>
+        <v>0.1667488061787219</v>
       </c>
       <c r="G10" t="n">
-        <v>1.175072279199627</v>
+        <v>1.889683049257443</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6748550545456544</v>
+        <v>0.8120669886845586</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002664841531302878</v>
+        <v>0.1892965778600103</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0818544544507603</v>
+        <v>0.9380517960449669</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0436761448744138</v>
+        <v>0.4083488780181989</v>
       </c>
       <c r="L10" t="n">
-        <v>1.029329964533972</v>
+        <v>0.9292704388248527</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04436400049605873</v>
+        <v>0.4147799646478654</v>
       </c>
       <c r="N10" t="n">
-        <v>142.5238128392405</v>
+        <v>37.58253350712005</v>
       </c>
       <c r="O10" t="n">
-        <v>283.8589853824569</v>
+        <v>74.54711709534587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_9</t>
+          <t>model_1_22_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995420822938738</v>
+        <v>0.9480262265900588</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8241796247997508</v>
+        <v>0.7173093844760525</v>
       </c>
       <c r="D11" t="n">
-        <v>0.811333569874801</v>
+        <v>0.773386138292942</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9986483343348759</v>
+        <v>0.8961740642454699</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001906094676702957</v>
+        <v>0.1668507389669755</v>
       </c>
       <c r="G11" t="n">
-        <v>1.175711658542453</v>
+        <v>1.890353447679232</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6748488810496736</v>
+        <v>0.8105846434994773</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002786144009831677</v>
+        <v>0.1879363604535069</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08093642708518697</v>
+        <v>0.9390017250569871</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04365884419797387</v>
+        <v>0.4084736698576488</v>
       </c>
       <c r="L11" t="n">
-        <v>1.02930673319208</v>
+        <v>0.9292272021651864</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0443464273512592</v>
+        <v>0.4149067218340406</v>
       </c>
       <c r="N11" t="n">
-        <v>142.5253976040044</v>
+        <v>37.58131128972907</v>
       </c>
       <c r="O11" t="n">
-        <v>283.8605701472208</v>
+        <v>74.54589487795488</v>
       </c>
     </row>
   </sheetData>
